--- a/UNIMED.xlsx
+++ b/UNIMED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\062613\Desktop\XMLLeitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982B8A07-79CF-4E21-A329-FA5325B9A802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B487BAA-F8F8-474F-8A15-C0F6E558E3B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{E33E0332-9A6D-4605-9DE2-6873DB0DB532}"/>
   </bookViews>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4993F3-A5E9-45F0-BBAD-8BCF3D43CCAD}">
-  <dimension ref="A1:E3930"/>
+  <dimension ref="A1:E3990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3948" workbookViewId="0">
+      <selection activeCell="D3976" sqref="D3976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31790,8 +31790,503 @@
         <v>123456</v>
       </c>
     </row>
+    <row r="3929" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3929">
+        <v>80010006</v>
+      </c>
+      <c r="B3929">
+        <v>60000260</v>
+      </c>
+    </row>
     <row r="3930" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3930">
+        <v>80041823</v>
+      </c>
+      <c r="B3930">
+        <v>60023180</v>
+      </c>
       <c r="E3930" s="2"/>
+    </row>
+    <row r="3931" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3931">
+        <v>80041819</v>
+      </c>
+      <c r="B3931">
+        <v>60033975</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3932">
+        <v>80010001</v>
+      </c>
+      <c r="B3932">
+        <v>60000511</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3933">
+        <v>80060018</v>
+      </c>
+      <c r="B3933">
+        <v>60027169</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3934">
+        <v>80041820</v>
+      </c>
+      <c r="B3934">
+        <v>60033991</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3935">
+        <v>80044122</v>
+      </c>
+      <c r="B3935">
+        <v>60015225</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3936">
+        <v>80041821</v>
+      </c>
+      <c r="B3936">
+        <v>60027452</v>
+      </c>
+    </row>
+    <row r="3937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3937">
+        <v>80060017</v>
+      </c>
+      <c r="B3937">
+        <v>60025182</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3938">
+        <v>80110007</v>
+      </c>
+      <c r="B3938">
+        <v>60034300</v>
+      </c>
+    </row>
+    <row r="3939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3939">
+        <v>80110008</v>
+      </c>
+      <c r="B3939">
+        <v>60034246</v>
+      </c>
+    </row>
+    <row r="3940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3940">
+        <v>80080001</v>
+      </c>
+      <c r="B3940">
+        <v>98972014</v>
+      </c>
+    </row>
+    <row r="3941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3941">
+        <v>80080002</v>
+      </c>
+      <c r="B3941">
+        <v>98972022</v>
+      </c>
+    </row>
+    <row r="3942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3942">
+        <v>80080003</v>
+      </c>
+      <c r="B3942">
+        <v>98972030</v>
+      </c>
+    </row>
+    <row r="3943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3943">
+        <v>80080004</v>
+      </c>
+      <c r="B3943">
+        <v>98972049</v>
+      </c>
+    </row>
+    <row r="3944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3944">
+        <v>80080005</v>
+      </c>
+      <c r="B3944">
+        <v>98972057</v>
+      </c>
+    </row>
+    <row r="3945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3945">
+        <v>80080006</v>
+      </c>
+      <c r="B3945">
+        <v>98972065</v>
+      </c>
+    </row>
+    <row r="3946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3946">
+        <v>80020002</v>
+      </c>
+      <c r="B3946">
+        <v>60023104</v>
+      </c>
+    </row>
+    <row r="3947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3947">
+        <v>80010007</v>
+      </c>
+      <c r="B3947">
+        <v>60001038</v>
+      </c>
+    </row>
+    <row r="3948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3948">
+        <v>80020001</v>
+      </c>
+      <c r="B3948">
+        <v>60023090</v>
+      </c>
+    </row>
+    <row r="3949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3949">
+        <v>80080007</v>
+      </c>
+      <c r="B3949">
+        <v>98972073</v>
+      </c>
+    </row>
+    <row r="3950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3950">
+        <v>80080008</v>
+      </c>
+      <c r="B3950">
+        <v>98972081</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3951">
+        <v>80080009</v>
+      </c>
+      <c r="B3951">
+        <v>98972090</v>
+      </c>
+    </row>
+    <row r="3952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3952">
+        <v>80090001</v>
+      </c>
+      <c r="B3952">
+        <v>98972103</v>
+      </c>
+    </row>
+    <row r="3953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3953">
+        <v>80060023</v>
+      </c>
+      <c r="B3953">
+        <v>60027363</v>
+      </c>
+    </row>
+    <row r="3954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3954">
+        <v>80060024</v>
+      </c>
+      <c r="B3954">
+        <v>60027533</v>
+      </c>
+    </row>
+    <row r="3955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3955">
+        <v>80010010</v>
+      </c>
+      <c r="B3955">
+        <v>60000473</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3956">
+        <v>80081304</v>
+      </c>
+      <c r="B3956">
+        <v>60033533</v>
+      </c>
+    </row>
+    <row r="3957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3957">
+        <v>80041818</v>
+      </c>
+      <c r="B3957">
+        <v>60022817</v>
+      </c>
+    </row>
+    <row r="3958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3958">
+        <v>80020008</v>
+      </c>
+      <c r="B3958">
+        <v>60023163</v>
+      </c>
+    </row>
+    <row r="3959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3959">
+        <v>80110002</v>
+      </c>
+      <c r="B3959">
+        <v>60034220</v>
+      </c>
+    </row>
+    <row r="3960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3960">
+        <v>80010003</v>
+      </c>
+      <c r="B3960">
+        <v>60000627</v>
+      </c>
+    </row>
+    <row r="3961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3961">
+        <v>80010002</v>
+      </c>
+      <c r="B3961">
+        <v>60000619</v>
+      </c>
+    </row>
+    <row r="3962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3962">
+        <v>80010004</v>
+      </c>
+      <c r="B3962">
+        <v>60000783</v>
+      </c>
+    </row>
+    <row r="3963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3963">
+        <v>80090002</v>
+      </c>
+      <c r="B3963">
+        <v>98972111</v>
+      </c>
+    </row>
+    <row r="3964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3964">
+        <v>80090003</v>
+      </c>
+      <c r="B3964">
+        <v>98972120</v>
+      </c>
+    </row>
+    <row r="3965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3965">
+        <v>80090004</v>
+      </c>
+      <c r="B3965">
+        <v>98972138</v>
+      </c>
+    </row>
+    <row r="3966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3966">
+        <v>80090005</v>
+      </c>
+      <c r="B3966">
+        <v>98972146</v>
+      </c>
+    </row>
+    <row r="3967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3967">
+        <v>80100001</v>
+      </c>
+      <c r="B3967">
+        <v>98972154</v>
+      </c>
+    </row>
+    <row r="3968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3968">
+        <v>80100002</v>
+      </c>
+      <c r="B3968">
+        <v>98972162</v>
+      </c>
+    </row>
+    <row r="3969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3969">
+        <v>80100003</v>
+      </c>
+      <c r="B3969">
+        <v>98972170</v>
+      </c>
+    </row>
+    <row r="3970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3970">
+        <v>80100004</v>
+      </c>
+      <c r="B3970">
+        <v>98972189</v>
+      </c>
+    </row>
+    <row r="3971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3971">
+        <v>80100005</v>
+      </c>
+      <c r="B3971">
+        <v>98972197</v>
+      </c>
+    </row>
+    <row r="3972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3972">
+        <v>80100006</v>
+      </c>
+      <c r="B3972">
+        <v>98972200</v>
+      </c>
+    </row>
+    <row r="3973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3973">
+        <v>80100007</v>
+      </c>
+      <c r="B3973">
+        <v>98972219</v>
+      </c>
+    </row>
+    <row r="3974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3974">
+        <v>80100008</v>
+      </c>
+      <c r="B3974">
+        <v>98972227</v>
+      </c>
+    </row>
+    <row r="3975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3975">
+        <v>80100009</v>
+      </c>
+      <c r="B3975">
+        <v>98972235</v>
+      </c>
+    </row>
+    <row r="3976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3976">
+        <v>80100010</v>
+      </c>
+      <c r="B3976">
+        <v>98972243</v>
+      </c>
+      <c r="D3976" s="1"/>
+    </row>
+    <row r="3977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3977">
+        <v>80100011</v>
+      </c>
+      <c r="B3977">
+        <v>98972251</v>
+      </c>
+    </row>
+    <row r="3978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3978">
+        <v>80110001</v>
+      </c>
+      <c r="B3978">
+        <v>60034157</v>
+      </c>
+    </row>
+    <row r="3979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3979">
+        <v>80060016</v>
+      </c>
+      <c r="B3979">
+        <v>60029056</v>
+      </c>
+    </row>
+    <row r="3980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3980">
+        <v>80010005</v>
+      </c>
+      <c r="B3980">
+        <v>60000635</v>
+      </c>
+    </row>
+    <row r="3981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3981">
+        <v>80060008</v>
+      </c>
+      <c r="B3981">
+        <v>60027363</v>
+      </c>
+    </row>
+    <row r="3982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3982">
+        <v>80020003</v>
+      </c>
+      <c r="B3982">
+        <v>60023112</v>
+      </c>
+    </row>
+    <row r="3983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3983">
+        <v>80020004</v>
+      </c>
+      <c r="B3983">
+        <v>60023120</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3984">
+        <v>80020005</v>
+      </c>
+      <c r="B3984">
+        <v>60023139</v>
+      </c>
+    </row>
+    <row r="3985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3985">
+        <v>80020006</v>
+      </c>
+      <c r="B3985">
+        <v>60023147</v>
+      </c>
+    </row>
+    <row r="3986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3986">
+        <v>80020007</v>
+      </c>
+      <c r="B3986">
+        <v>60023155</v>
+      </c>
+    </row>
+    <row r="3987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3987">
+        <v>80110003</v>
+      </c>
+      <c r="B3987">
+        <v>60034319</v>
+      </c>
+    </row>
+    <row r="3988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3988">
+        <v>80110004</v>
+      </c>
+      <c r="B3988">
+        <v>60034327</v>
+      </c>
+    </row>
+    <row r="3989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3989">
+        <v>80110005</v>
+      </c>
+      <c r="B3989">
+        <v>60034378</v>
+      </c>
+    </row>
+    <row r="3990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3990">
+        <v>80110006</v>
+      </c>
+      <c r="B3990">
+        <v>60034360</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
